--- a/compare/compare_code/out/results/idmp_different_ontologies_in_repository_versions.xlsx
+++ b/compare/compare_code/out/results/idmp_different_ontologies_in_repository_versions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>repository</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>idmp</t>
+  </si>
+  <si>
+    <t>StatisticalMeasures</t>
+  </si>
+  <si>
+    <t>StructuredCollections</t>
+  </si>
+  <si>
+    <t>ISO11238-Substances-DeprecatedElements</t>
   </si>
 </sst>
 </file>
@@ -383,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -404,11 +413,24 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
